--- a/final_output.xlsx
+++ b/final_output.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>product inquiry</t>
+          <t>order request</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,16 +808,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>QTP5432</t>
+          <t>SFT1098</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,12 +828,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LTH5432</t>
+          <t>CBT8901</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -848,20 +848,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SFT1098</t>
+          <t>CLF2109</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>created</t>
+          <t>out of stock</t>
         </is>
       </c>
     </row>
@@ -873,47 +873,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CLF2109</t>
+          <t>FZZ1098</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>out of stock</t>
+          <t>created</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FZZ1098</t>
+          <t>VSC6789</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>out of stock</t>
+          <t>created</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VSC6789</t>
+          <t>RSG8901</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -928,12 +928,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RSG8901</t>
+          <t>SLD7654</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -941,19 +941,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>out of stock</t>
+          <t>created</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SLD7654</t>
+          <t>SWL2345</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -968,40 +968,40 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E018</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SWL2345</t>
+          <t>RSG8901</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>created</t>
+          <t>out of stock</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>E018</t>
+          <t>E019</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RSG8901</t>
+          <t>CBT8901</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>out of stock</t>
+          <t>created</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CBT8901</t>
+          <t>RSG8901</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1021,23 +1021,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>created</t>
+          <t>out of stock</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>E019</t>
+          <t>E022</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RSG8901</t>
+          <t>SDE2345</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1048,38 +1048,18 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>E022</t>
+          <t>E023</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PTN4567</t>
+          <t>CGN2345</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="inlineStr">
-        <is>
-          <t>out of stock</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>E023</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>CGN2345</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" t="inlineStr">
         <is>
           <t>out of stock</t>
         </is>
@@ -1096,7 +1076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1124,238 +1104,263 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Subject: Order Confirmation for E001 - Product LTH0976 (Quantity: 1)
+          <t>Subject: Your order is confirmed – LTH0976 (1)
 Hello,
-Thank you for shopping with us. We are pleased to confirm that your order has been created successfully.
-Order details:
-Product ID: LTH0976
+Thank you for shopping with us. We're happy to confirm that your order has been created successfully.
+For your reference, the details are: Product ID LTH0976, Quantity 1, Order Reference E001.
+Your item is currently in processing and will be prepared for shipment soon. We will send you a shipping notification once it moves to dispatch.
+If you're hoping for quicker fulfillment or if this item becomes unavailable, we will notify you. In the meantime, you may choose to wait for restock or explore alternative products in our collection. We'd be glad to suggest similar items based on your preferences.
+Please feel free to reply to this email with any questions.
+Best regards,
+Customer Support Team</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>E002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Subject: Your order is confirmed - Product VBT2345 (Quantity 1)
+Hello,
+Thank you for your order. We’re pleased to confirm that your item has been created in our system.
+Details: Product ID VBT2345; Quantity: 1; Status: Created.
+Your order is now being processed and will be prepared for shipment shortly. You will receive a separate shipping confirmation with tracking information once your package leaves our warehouse.
+If you’d like to review or update anything, or if you have questions, please reply to this email and we’ll be happy to assist.
+Thank you for choosing us.
+Best regards,
+Customer Support Team</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>E004</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Subject: Your order has been created for SFT1098 (Quantity: 3)
+Dear Customer,
+We are pleased to confirm that your order has been created. Here are the details:
+Product ID: SFT1098
+Quantity: 3
+Your order is now being processed, and you will receive a shipping confirmation once it has been dispatched. If you have any questions or need to make changes, please reply to this email and our team will assist you promptly.
+Thank you for shopping with us. We appreciate your business.
+Best regards,
+Fashion Store Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>E006</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Subject: Order Confirmation for CBT8901 (Quantity: 1)
+Hello,
+Thank you for shopping with us. We’re pleased to confirm your order for the following item:
+Product ID CBT8901, quantity 1.
+All items in this order are currently in status "created." This means your order has been received and is awaiting processing. We will begin processing shortly, and you will receive a shipment confirmation email as soon as your order ships.
+If you’d like to explore alternatives or wait for restock, we’re happy to help. We can suggest similar items that are in stock now, or notify you when CBT8901 is back in stock.
+If you have any questions, please reply to this email and we’ll be glad to assist.
+Best regards,
+Fashion Store Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E007</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Subject: Update on Your Order E007: CLF2109 and FZZ1098
+Hello,
+Thank you for shopping with us. We’ve reviewed your order associated with email ID E007 and want to share the current status. CLF2109 (quantity 5) is currently out of stock, while FZZ1098 (quantity 2) has been created and will be processed.
+Because one item is unavailable, we can’t fulfill the full order right now. You have a few options: you can wait for CLF2109 to be restocked, and we will notify you as soon as it’s available to ship the complete order; or we can help you find a similar item that is in stock as a substitute—if you share your size, color preferences, and budget, we’ll propose suitable options; or we can ship the available FZZ1098 now and ship CLF2109 later when it’s restocked (backorder). If you prefer, you can cancel the CLF2109 portion by letting us know.
+Please reply with your preferred option, and we will take care of it promptly. If you’d like to be notified for restocks of CLF2109, we can set up a restock alert as well.
+Thank you for your patience and understanding.
+Best regards,
+Fashion Store Support Team</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>E008</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Subject: Your order has been created – VSC6789 (Quantity: 1)
+Hello,
+Thank you for shopping with us. We’re pleased to confirm that your order has been created successfully.
+Here are the details:
+Product ID: VSC6789
 Quantity: 1
 Status: Created
-What happens next: We will keep you updated as your order moves through processing and shipping. If you would like to be notified about restocks of this item or would prefer to explore alternative products in the same category, I’m happy to assist with recommendations or options.
-Thank you again for your order. If you have any questions, please feel free to reply to this email.
+We will begin processing your order right away and will notify you as soon as it ships. If you’d like to explore alternatives or want to be alerted if this item is restocked, I’d be happy to help.
 Best regards,
-Fashion Store Support
-[Store Name]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>E002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Subject: Your order has been created – Confirmation
-Hello,
-Thank you for shopping with us. We’re happy to confirm that your order has been created successfully. Here are the items and quantities in your order: VBT2345 — 1 unit; QTP5432 — 1 unit; LTH5432 — 1 unit. All items are currently in the “created” status and are moving through our fulfillment process.
-We will notify you as soon as your order ships and provide tracking information. If you have any questions or need to make changes, please reply to this email and we’ll be happy to assist.
-Best regards,
-Customer Support Team</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>E004</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Subject: Your order is created for 3 units of SFT1098
-Hello,
-Thank you for shopping with us. We’re pleased to confirm that your order has been created. Product ID SFT1098, Quantity: 3. This status indicates your items are reserved and moving to the next processing stage. We will send you a shipment confirmation as soon as your order is on its way. If you’d like to make any changes or have questions, please reply to this email and we’ll be happy to help.
-Thank you again for choosing us.
-Best regards,
-Fashion Store Customer Support</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>E007</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Subject: Update on your order E007 – Out of stock items
-Dear Customer,
-Thank you for shopping with us. I’m writing to provide an update on your order E007. We regret to inform you that two items are currently out of stock: CLF2109 with a quantity of 5, and FZZ1098 with a quantity of 2. We understand this may be disappointing, and we sincerely apologize for the inconvenience.
-To help you decide on the next steps, you can choose from the following options: we can place a back-in-stock alert for CLF2109 and FZZ1098 and hold your order until they are available again, with a notification sent as soon as they restock; we can assist you in finding alternative products that are currently in stock; or if you prefer, we can cancel the affected items from your order and issue a full refund. Please let us know which option you’d like to pursue, and we’ll take care of it promptly.
-If you’d like, we can also start by checking for similar styles in your preferred size and budget and share recommendations with you. We’re here to help you find the best solution.
-Thank you for your patience and understanding. Please reply to this email with your preferred option, and we’ll proceed right away.
-Best regards,
-Customer Support
+Customer Support Team
 Fashion Store</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>E008</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Subject: Your order E008 is confirmed
-Dear Customer,
-Thank you for shopping with us. We are pleased to confirm that your order has been created and is now being processed.
-Order details: Product ID VSC6789, Quantity 1, Status: Created. Reference: E008.
-We will notify you as soon as your item ships and provide tracking information.
-If you would like to explore other options while you wait, we can suggest similar styles or set up a restock alert for VSC6789.
-Please let us know if you have any questions by replying to this email.
-Best regards,
-Fashion Store Customer Support</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>E010</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Subject: Update on your order E010 — RSG8901 (out of stock)
-Hello,
-Thank you for shopping with us. We regret to inform you that the item you ordered, product ID RSG8901, quantity 1, is currently out of stock and cannot be fulfilled at this time. We apologize for the inconvenience.
-If you would like to proceed, you have two options. You can wait for restock, and we will notify you as soon as RSG8901 becomes available again so we can fulfill your order for 1 unit. If you'd like us to set up a restock alert, please reply to this email to confirm. Alternatively, you can choose an alternative item that is currently in stock. We can help you find a similar style and reserve the best match for you—please share your preferences (size, color, style) and we will suggest suitable options.
-If you prefer, you may also cancel or modify your order E010. Please let us know how you'd like to proceed, and we'll take care of it promptly.
-Thank you for your understanding and patience. We value your business and are here to help.
-Best regards,
-Customer Support Team</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Subject: Your order is confirmed - Reference E013
+          <t>Subject: Your order E010 is confirmed
 Hello,
-Thank you for shopping with us. I’m happy to confirm that your order has been created successfully.
-Order reference: E013
-Item: Product ID SLD7654
+We’re happy to confirm that your order has been created successfully.
+Order reference: E010
+Product ID: RSG8901
 Quantity: 1
 Status: Created
-What happens next: Your order is now in processing. We will notify you as soon as it moves to the next stage, such as payment confirmation and shipment. If you need to make any changes, please reply to this email and we’ll assist you promptly.
-If you’d like to wait for restock or explore alternative products, we’re happy to help. We can set up restock alerts for similar items or suggest comparable styles that are currently available.
+We will start processing your order immediately, and you’ll receive a shipping confirmation with tracking details once it’s on its way. If you need any changes or have questions, please reply to this email.
+Thank you for choosing us!
+Warm regards,
+The Fashion Store Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>E013</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Subject: Your order has been created for SLD7654 (Qty 1)
+Dear Valued Customer,
+Thank you for shopping with us. We’re pleased to confirm that your order has been created successfully.
+Order reference: E013
+Product ID: SLD7654
+Quantity: 1
+What happens next: Your item will be processed and prepared for shipment. You will receive a notification as soon as your order ships.
+If you’d like to wait for restock or would prefer alternatives, we can monitor the item for you and notify you when it’s back in stock, or suggest similar styles that may suit your needs. Please reply to this email with your preference and we’ll assist you promptly.
 Thank you again for choosing us. If you have any questions, feel free to reply to this email.
 Best regards,
-Fashion Store Support Team</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>E014</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Subject: Confirmation of Order E014 for SWL2345 (Quantity: 1)
-Hello,
-Thank you for shopping with us. We are pleased to confirm that your order has been created successfully.
-Here are your order details: Email ID E014, Product ID SWL2345, Quantity 1, Status Created. We will begin processing your order shortly, and you will receive a notification when it moves to the next stage, followed by a shipping confirmation with tracking details once your item ships.
-If you need to update any information or have questions, please reply to this email and we will assist you promptly.
-Thank you again for choosing our store. We hope you love your purchase.
-Best regards,
-Fashion Store Support Team</t>
+[Store Name] Customer Support</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>E014</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Subject: Confirmation of Your Order E014
+Hello,
+Thank you for shopping with us. We’re happy to confirm that your order has been created successfully.
+Order details:
+- Email ID: E014
+- Product ID: SWL2345
+- Quantity: 1
+- Status: Created
+What happens next: The item is reserved and will proceed to the next stage of processing. We’ll keep you updated and notify you as soon as the order moves to shipment or if there are any changes.
+If you’d like, we can set up a restock alert for SWL2345 or help you find similar items in our catalog.
+If you have any questions, simply reply to this email and we’ll be glad to assist.
+Best regards,
+Fashion Store Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>E018</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Subject: Update on your order E018 — Product RSG8901 (out of stock)
-Hello,
-Thank you for shopping with us. I’m writing to update you on your order with email ID E018. Unfortunately, the item you selected is currently out of stock: Product ID RSG8901, quantity 2.
-We want to be clear about your options. You can either wait for restock, in which case we can place RSG8901 on backorder and notify you as soon as it’s back in stock, or you can choose an alternative product that is available now and ship immediately. If you’d like us to set up a restock alert, or if you prefer current alternatives, please reply to this email with your preference and any details (size, color, budget). We can also assist with canceling or modifying the order to replace with in-stock items.
-We apologize for the inconvenience and appreciate your understanding. We will keep you posted on the restock status for product RSG8901.
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Subject: Update on your order E018 – RSG8901 (2x) is currently out of stock
+Dear Valued Customer,
+Thank you for shopping with us and for your patience while we process your order. We need to inform you that the item in your order with Product ID RSG8901 and quantity 2, associated with Email ID E018, is currently out of stock. Because of this, we are unable to fulfill the shipment at this time.
+You have options. You can choose to place RSG8901 on backorder, and we will notify you as soon as it is restocked so we can ship the items to you. Alternatively, if you would like to receive your order sooner, we can help you find a suitable substitute that is currently in stock; if you share your preferences (such as budget, style, color, and size), we will propose matching alternatives.
+If you prefer to cancel, we can process a refund for the two units of RSG8901.
+Please reply with your preferred option and we will proceed promptly. If you choose backorder, please confirm that you would like us to place RSG8901 (2x) on backorder. If you would like substitutes, please provide any preferences so we can tailor recommendations.
+Thank you for your understanding and for choosing us. We’re here to help and will respond quickly to your reply.
 Best regards,
 Customer Support Team
-The Fashion Store</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>E019</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Subject: Update on your order — CBT8901 created, RSG8901 currently out of stock
-Hello,
-Thank you for shopping with us. I’m reaching out to update you on the items in your recent order. Here are the details:
-- CBT8901, quantity 1, status: created. This item is prepared for processing and will be shipped as soon as the rest of your order is ready.
-- RSG8901, quantity 1, status: out of stock. This item is currently unavailable.
-Because one item is out of stock, we have a few options for you. You can choose to wait for the restock and we’ll notify you as soon as RSG8901 becomes available (we can hold your order in the meantime and ship everything together when it’s back in stock, or ship CBT8901 now and add RSG8901 later). Alternatively, we can help you find a suitable replacement—similar style and price range—and add it to your order. If you’d prefer not to wait or replace, we can cancel RSG8901 from the order and refund that item.
-Please reply with your preferred option:
-- Wait for RSG8901 restock and notify you
-- Choose a replacement item (tell us your style, size, and budget)
-- Cancel RSG8901 and receive a refund
-If you’d like, we can also provide a few recommended alternatives based on your past purchases or preferences.
-If you have any questions, I’m here to help. Thank you for your understanding and patience.
-Best regards,
-Fashion Store Customer Support Team</t>
+Fashion Store</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>E022</t>
+          <t>E019</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Subject: Update on your order E022 — PTN4567 (3 pcs) currently out of stock
+          <t>Subject: Update on your order E019
 Hello,
-Thank you for shopping with us. I’m reaching out regarding your order reference E022. The item you selected, Product ID PTN4567, with a quantity of 3, is currently out of stock and cannot be fulfilled at this time. I apologize for the inconvenience this may cause.
-You have two options to consider. First, we can place PTN4567 on backorder and ship it as soon as stock becomes available. You will receive a notification from us when it is ready to ship, and we can proceed with completing your order at that time. Second, if you prefer to receive something sooner, we can help you find alternative products that are currently in stock and similar in style or price. If you’d like, please share your preferences for color, size, or budget, and we’ll propose suitable substitutes and update your order accordingly.
-Please reply to this email with your preferred option: backorder for PTN4567 or suggested alternatives. If you’d like us to explore substitutes, include any details that will help us tailor the recommendations to your tastes.
-We appreciate your understanding and patience, and we’re here to help you get exactly what you’re looking for as quickly as possible.
-Best regards,
-Fashion Store Support Team
-contact@fashionstore.example
-Phone: (123) 456-7890</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>E023</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Subject: Update on your order E023 — CGN2345 (5 units) is currently out of stock
-Hello,
-Thank you for shopping with us. I’m reaching out regarding your order reference E023 for Product ID CGN2345, quantity 5. Unfortunately, this item is currently out of stock and cannot be fulfilled at this time. We apologize for the inconvenience this may cause.
-You have a few options moving forward. You can choose to wait for restock, in which case we can set up a back-in-stock alert and notify you as soon as CGN2345 is available again for shipping. If you’d prefer not to wait, we can help you find alternatives that match the same style and price range; please share your size, color preferences, and budget, and we’ll propose suitable substitutes. If you’d rather not proceed with CGN2345 at all, we can cancel this item from your order and issue a full refund for the 5 units.
-Please reply with your preferred option. If you’d like us to arrange a restock alert or suggest alternatives, let us know your preferences and we’ll take care of it promptly. You can also contact our support team by replying to this email or reaching us at [support email] or [phone number].
-Thank you for your understanding and for choosing our store. We’re here to help and will respond quickly once we hear back.
+Thank you for shopping with us. I’d like to provide an update on your order E019. Your order includes CBT8901 (quantity 1), which is currently created and will be processed. It also includes RSG8901 (quantity 1), which is currently out of stock and cannot be fulfilled at this time. We apologize for any inconvenience this may cause.
+You have a few options to consider. We can wait for RSG8901 to be restocked and notify you as soon as it becomes available. We can place RSG8901 on backorder and ship it to you automatically once it returns to stock. Or we can help you find a similar alternative product that is currently in stock. If you’d like, please share your preferences (color, size, price range) and I’ll suggest suitable options.
+If you’d like to proceed with any of these options, please reply to this email with your preferred choice. We appreciate your patience and understanding, and we’re here to help with any questions you may have.
 Best regards,
 Customer Support
 [Store Name]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>E022</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Subject: Update on your order E022 – SDE2345 is currently out of stock
+Dear Customer,
+Thank you for shopping with us. We regret to inform you that part of your order E022 cannot be fulfilled at this moment because Product ID SDE2345, quantity 3, is currently out of stock. We apologize for the inconvenience this may cause.
+You have a couple of options. We can place a backorder for the 3 units and ship them to you as soon as they are back in stock. If you prefer, we can also hold your order until the item is available and then ship everything together. Alternatively, we can help you find in-stock alternative products that match the style you were looking for; please share your preferences regarding color, size, and budget, and we’ll propose suitable options with their product IDs.
+If you would like to receive a restock notification for SDE2345, we can set that up and notify you as soon as it’s back in stock. And if you’d rather cancel, we can process a refund for that item or the entire order.
+Please reply with your preferred option and any details so we can proceed quickly. We’re here to help.
+Best regards,
+Customer Support Team
+Your Fashion Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>E023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Subject: Update on your order E023 — CGN2345 currently out of stock
+Hello,
+Thank you for shopping with us. I’m writing to update you on your order reference E023. One item in your order is currently out of stock: Product ID CGN2345, quantity 5.
+We’re sorry for the inconvenience. This item is temporarily unavailable due to high demand and stock delays. We want to provide you with options so you can decide how to proceed. You can choose to have CGN2345 placed on backorder and we will notify you as soon as it’s restocked, though restock dates can vary. Alternatively, if you’d prefer not to wait, we can suggest similar items that are currently in stock and help you find a suitable replacement. If you’d like, we can also remove this item from the order and proceed with the remaining items, or issue a refund for CGN2345.
+Please reply with your preferred option and any product preferences, and we’ll take care of it right away. If you’d like to wait for restock, simply reply that you’d like to backorder CGN2345 and we’ll set that up and keep you updated.
+We appreciate your patience and understanding. If you have any questions, feel free to reply to this email and we’ll be happy to assist.
+Best regards,
+Fashion Store Customer Support</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1398,13 +1403,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hi David,
-Thanks for reaching out. I can help compare the two options you mentioned.
-- Leather Backpack: Features multiple compartments and a padded laptop sleeve, plus adjustable straps. This setup is great for protecting a laptop and organizing documents with separate sections.
-- Leather Tote: Offers a spacious interior with multiple pockets and sturdy handles. It provides lots of organized pockets but doesn’t mention a dedicated laptop sleeve.
-Regarding “which has more organizational pockets”: both have multiple pockets/compartments, but the Backpack adds a padded laptop sleeve for tech protection and dedicated organization for documents and accessories. If you need a dedicated laptop compartment and structured organization, the Leather Backpack is likely the better fit. If you prefer a roomy bag with many pockets for quick access items, the Leather Tote is also a solid option.
-If you’d like, I can also suggest another option (Leather Messenger Bag) with a spacious main compartment and multiple pockets, in case you want a lighter crossbody style.
-Would you like me to help narrow it down based on your laptop size or daily carry essentials?</t>
+          <t>Hi David, thanks for reaching out!
+Here’s a quick comparison based on the available details:
+- LTH1098 Leather Backpack: It has multiple compartments and a padded laptop sleeve, plus adjustable straps. This makes it a strong choice for carrying a laptop plus documents securely.
+- LTH5432 Leather Tote: It features a spacious interior with multiple pockets. It’s great for organizing smaller items, but there’s no listed dedicated laptop sleeve.
+Exact counts of pockets aren’t specified for either bag, so I can’t say which has more pockets. If you need dedicated laptop protection, the Backpack (LTH1098) is the better option. If you mainly want a roomy tote with easily accessible pockets, the Tote (LTH5432) could work well and is more budget-friendly.
+Stock and pricing:
+- LTH1098: 7 in stock, $43.99
+- LTH5432: 6 in stock, $28.00
+If you’d like, I can also suggest the Leather Messenger Bag (LTH2109) as another option with a spacious main compartment and multiple pockets, priced at $37.99.
+Would you like me to help you decide based on how you plan to use it, or reserve one for you?</t>
         </is>
       </c>
     </row>
@@ -1416,146 +1424,177 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Good day! For the Cozy Shawl (CSH1098), the description states it’s knitted from soft, warm yarn and can be worn as a shawl, scarf, or a lightweight blanket. It’s intended for fall and winter, offering cozy coverage as a lightweight option. So, it’s more of a wrap-like warmth rather than a heavy lap blanket.
-If you’re gifting it to your grandmother, this versatility could be a lovely choice since she can wear it in multiple ways.
-If you’re considering alternatives:
-- Cashmere Poncho: premium cashmere for enveloping warmth in winter.
-- Versatile Scarf: a lighter, travel-friendly option for transitional seasons.
-Note: The information provided doesn’t include the price. If you’d like, I can help compare features or find a similar option within a preferred price range.</t>
+          <t>Hello! Thanks for checking in.
+For the Cozy Shawl (CSH1098):
+- It is knitted from soft, warm yarn and is described as a versatile accessory that can be worn as a shawl, scarf, or a lightweight blanket.
+- It is designed as a lightweight blanket option, so it provides lighter warmth rather than a heavy throw.
+- Price: $22.00
+- Stock: 3
+- Seasons: Fall, Winter
+It makes a thoughtful gift for your grandmother as a cozy, versatile wrap.
+If you’re looking for something warmer, you might also consider:
+- Cashmere Poncho (CPN3210): premium cashmere, Winter, stock 3, price $48.00
+- Cozy Cardigan (CCG8901): soft, warm, versatile, Fall/Winter/Spring, stock 4, price $61.99
+Would you like me to compare these options or check stock for a specific one?</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hi Sam! Thanks for checking in. The Chelsea Boots are a great pick for the colder months. They’re a men’s shoe with a sleek leather construction, elastic side panels, and a sturdy lug sole, designed for Fall and Winter. Since you’re waiting until Fall to order, you’ll be well-prepared.
-If you’re looking for similar options, we also offer:
-- Rugged Boots: durable materials with a sturdy sole for Fall/Winter.
-- Waterproof Boots: water-resistant outer shell, fleece lining, and a lug sole for Winter.
-If you’d like, I can help you compare these options and find the best fit when you’re ready to order.</t>
+          <t>Hola! Gracias por tu pregunta sobre el Gorro de punto grueso (CHN0987).
+- Material: la información no especifica un material exacto; se indica que está tejido con un hilo grueso y cómodo.
+- Calor para invierno: está diseñado para otoño e invierno y se describe como "toasty", con un corte slouchy/oversized, por lo que es una opción cálida para los meses fríos.
+- Stock y precio: quedan 2 unidades en stock. Precio: 22.0.
+Si buscas opciones similares para el invierno, también puedes considerar:
+- THK0976 Thermal Henley (prenda superior para capas)
+- FNK9876 Fair Isle Sweater (suéter de estilo tradicional)
+¿Quieres que te ayude a reservar una unidad o a comparar estas opciones?</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>¡Hola! Gracias por tu pregunta.
-- El DHN0987 Gorro de punto grueso está tejido con hilo grueso y cómodo (thick, cozy yarn).
-- Está diseñado para otoño e invierno y se describe como toasty, por lo que es adecuado para mantener la cabeza caliente durante el frío.
-Si buscas una alternativa similar, también tenemos el Gorro de punto cable (Cable Knit Beanie), hecho en lana premium y con un ajuste suave y cálido, ideal para el invierno. ¿Quieres que te ayude a comparar tallas o colores?</t>
+          <t>Thanks for asking! The product details for RSG8901 Retro Sunglasses describe them as vintage-inspired with a nostalgic vibe, but they do not specify a particular era (such as the 1950s or 1960s).
+If you’re aiming for a coordinated retro look, you might also consider:
+- Saddle Bag (SDE2345): vintage charm with a classic saddle shape; stock 1; all seasons.
+- Distressed Jeans (DJN8901): edgy, vintage vibe with rips and fading; stock 5; Spring–Fall.
+Would you like help comparing these options or would you like me to hold the Retro Sunglasses for you?</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hi there! Thanks for checking.
-The Retro Sunglasses (RSG8901) are described as “retro” and “vintage-inspired” with a cool, nostalgic vibe, but the listing doesn’t specify a particular era (e.g., 1950s or 1960s).
-If you’re after a clearer era vibe, you might also like these retro-inspired options:
-- Saddle Bag: vintage charm with a classic saddle shape and minimalist retro flair (All seasons)
-- Clog Sandals: retro-inspired style with a classic clog silhouette and wooden sole (Spring, Summer)
-Would you like me to help compare these or look for other items with a specific vintage feel?</t>
+          <t>Hi there! I’m glad you reached out, and I’d be happy to help you find a good work bag option.
+Here are the current messenger/briefcase-style and related bags we have:
+- Leather Messenger Bag (LTH2109)
+  - Price: 37.99
+  - Stock: 4
+  - All-season, premium full-grain leather
+  - Features: spacious main compartment, multiple pockets, adjustable strap
+- Leather Backpack (LTH1098)
+  - Price: 43.99
+  - Stock: 7
+  - All-season, premium leather
+  - Features: multiple compartments, padded laptop sleeve, adjustable straps
+- Leather Tote (LTH5432)
+  - Price: 28.00
+  - Stock: 6
+  - All-season, premium full-grain leather
+  - Features: spacious interior, multiple pockets, sturdy handles
+Recommendation:
+- If you’re looking for something closest to a briefcase/messenger style, the Leather Messenger Bag (LTH2109) is your best match. It’s designed for work and everyday use with a roomy main area and organized pockets.
+- If you want a similar professional look but with added laptop protection, the Leather Backpack (LTH1098) is a solid option.
+- If you’re after a simpler, budget-friendly option, the Leather Tote (LTH5432) offers a roomy interior with sturdy handles.
+Would you like me to check stock for a specific option or help compare features to fit Emily’s needs (e.g., laptop size, number of pockets)? I can also note one aside if you’d like.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E015</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hi there! I’m glad you reached out, and I’m sorry to hear the strap on your last bag gave out. I’d be happy to help you explore work/briefcase–style options from our current collection.
-Here are the messenger/briefcase‑style options we have:
-- Leather Messenger Bag
-  - Full-grain leather, spacious main compartment, multiple pockets, and an adjustable strap for a comfortable fit. All seasons.
-- Leather Backpack
-  - Premium leather, multiple compartments, a padded laptop sleeve, and adjustable straps. All seasons. Great if you want structured organization with a lighter daily carry.
-- Leather Tote
-  - Premium full-grain leather, spacious interior, multiple pockets, and sturdy handles. All seasons.
-If you’re aiming for something slightly smaller than your previous bag, the Leather Messenger Bag and Leather Backpack offer compact designs with practical pockets and adjustable straps, while the Leather Tote provides a more streamlined interior with ample space. Exact sizes aren’t listed here, so I can help narrow it down if you share what you typically carry (e.g., documents, a laptop size, number of pockets you prefer).
-Would you like more details or photos of any of these to compare? I’m happy to help you pick a great fit.
-P.S. I can’t assist with dinner reservations, but I’m glad to help with any other bag options or accessories you’re considering.</t>
+          <t>Good morning! Based on what you described, the Leather Backpack (LTH1098) is the best fit for Thomas—stylish for the office and practical for weekend hikes.
+Why it works:
+- Premium leather with a professional look
+- Multiple compartments and a padded laptop sleeve for work essentials
+- Adjustable straps for a comfy fit during daily use and outdoor outings
+- All-season versatility
+Details:
+- Price: 43.99
+- Stock: 7
+If you’d like a more compact, office-ready option as well, you could also consider the Leather Messenger Bag (LTH2109): it has a spacious main compartment, multiple pockets, and an adjustable strap (price 37.99, stock 4).
+Would you like me to place an order or reserve one for you? I can also help compare sizes or features if you’d like.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E015</t>
+          <t>E016</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Good morning! For a bag that’s stylish and practical for both a professional office setting and weekend outdoor activities, the Leather Backpack is the best fit. It’s crafted from premium leather, features multiple compartments, a padded laptop sleeve, and adjustable straps for a comfortable fit. It’s described as ideal for work, travel, or everyday use and is suitable for all seasons.
-If you’d prefer a sleeker option for the office, you might also consider the Leather Messenger Bag. It has a spacious main compartment, multiple pockets, and an adjustable strap, with a timeless look for work and daily use.
-Would you like more details or help comparing these two to decide what would be best for Thomas?</t>
+          <t>Hi Claire! Nice to meet you, and thanks for reaching out. Based on your preferences, here are two dress options from our current collection that tend to work well for summer weddings and outdoor ceremonies:
+- Floral Maxi Dress (FLD9876)
+  - Long, flowy silhouette that moves with you
+  - Great for an outdoor setting and a flattering, elegant look
+  - Price: $56
+  - Stock: 7
+  - Season: Spring, Summer
+  - Note: Includes a 20% off offer
+- Floral Sundress (FSD2345)
+  - Breezy, lightweight, with a flattering silhouette
+  - Comfortable for warm weather and sunny ceremonies
+  - Price: $58
+  - Stock: 4
+  - Season: Spring, Summer
+If you’re aiming for a dress that feels more formal and length-enhancing for an outdoor ceremony, the Floral Maxi Dress might be the best fit. If you’d prefer something lighter and breezier, the Floral Sundress is a great option.
+Regarding a travel bag: we don’t have travel bags listed in our current catalog. If you’d like, I can focus on helping you pick a dress and answer any questions about fit or care.
+Would you like me to reserve one of these dresses for you or help compare them further? If you have a preferred size or color in mind, share that and I’ll tailor the options.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>E016</t>
+          <t>E020</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hi Claire! Thanks for reaching out—I’d be happy to help you find something flattering and comfortable for a summer outdoor wedding.
-Two great options from our current collection:
-- Floral Maxi Dress: This dress has a breezy, lightweight feel with a flowing, flattering silhouette. It’s elegant for an outdoor ceremony and is currently on sale with 20% off.
-- Floral Sundress: Also breezy and lightweight with a flattering silhouette. Great for sunny days and warm weather, offering a comfortable yet polished look.
-Pair either dress with our Strappy Sandals for a complete summer-ready outfit.
-Regarding a travel bag: we don’t have travel bags in our current collection. If you’d like, I can help you choose between the two dresses and suggest sandals to complete the look.
-Would you like more details on fit or help deciding between the Maxi Dress and Sundress for your wedding?</t>
+          <t>Hi Antonio,
+The Saddle Bag (SDE2345) costs 39.00. It is suitable for all seasons, including spring. There is currently 1 left in stock—limited stock available.
+If you’d like spring-friendly alternatives, you might consider:
+- Fringe Crossbody (FRP6789): Spring, Summer, Fall; stock 2; price 67.0
+- Leather Messenger Bag (LTH2109): All seasons; stock 4; price 37.99
+Would you like me to reserve the Saddle Bag for you or help compare these options?</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>E020</t>
+          <t>E021</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hi Antonio,
-Thanks for reaching out! The price for the Saddle Bag isn’t listed in the information I have. The Saddle Bag is suitable for spring as it’s listed for all seasons. If you’d like, I can help check the current price or assist with availability.
-If you’re considering spring options, you might also like:
-- Fringe Crossbody: boho-chic with fringed exterior, Spring/Summer/Fall
-- Leather Messenger Bag: all seasons, premium full-grain leather, spacious with an adjustable strap
-Let me know which option you’d like more details on, or if you’d like me to check pricing for you.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>E021</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Hi there! Yes—winter hats are available in our current collection. The options you can consider are:
-- Chunky Knit Beanie (Accessories): Thick, cozy yarn with a slouchy, oversized fit and a rustic charm. Season: Fall, Winter.
-- Corduroy Bucket Hat (Accessories): Soft corduroy with a relaxed bucket silhouette for a laidback, streetwear-inspired look. Season: Fall, Winter.
-Both are suitable for cold weather and can complement vintage-inspired outfits. If you’d like, I can share more details on either item or help you compare them to find the best fit for your style. Which one would you like to know more about?</t>
+          <t>Hi there! Yes, we do have winter-ready hats in our collection. Here are the options:
+- Corduroy Bucket Hat (CBY6789)
+  - Season: Fall, Winter
+  - Price: 28.0
+  - Stock: 3
+  - Style: soft corduroy with a relaxed bucket silhouette for a casual, streetwear-inspired look
+- Chunky Knit Beanie (CHN0987)
+  - Season: Fall, Winter
+  - Price: 22.0
+  - Stock: 2
+  - Style: thick yarn with a slouchy, oversized fit for extra warmth and rustic charm
+Note: Bucket Hat (BKR0123) is Spring/Summer, so it wouldn’t be ideal for winter.
+Would you like me to reserve one of these for you or help you place an order? If you’re aiming for a vintage-inspired winter look, the Corduroy Bucket Hat offers a laid-back vibe, while the Chunky Knit Beanie adds warmth and a cozy touch.</t>
         </is>
       </c>
     </row>
